--- a/ganttChart.xlsx
+++ b/ganttChart.xlsx
@@ -58,9 +58,6 @@
     <t>COMPLETE</t>
   </si>
   <si>
-    <t>PERIODS</t>
-  </si>
-  <si>
     <t>ACTIVITY</t>
   </si>
   <si>
@@ -182,6 +179,9 @@
   </si>
   <si>
     <t>Report Writing</t>
+  </si>
+  <si>
+    <t>Weeks</t>
   </si>
 </sst>
 </file>
@@ -626,7 +626,7 @@
 </file>
 
 <file path=xl/ctrlProps/ctrlProp1.xml><?xml version="1.0" encoding="utf-8"?>
-<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="Spin" dx="16" fmlaLink="period_selected" max="60" min="1" page="10"/>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="Spin" dx="16" fmlaLink="period_selected" max="60" min="1" page="10" val="5"/>
 </file>
 
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -913,8 +913,8 @@
   </sheetPr>
   <dimension ref="B2:BQ34"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="Q22" sqref="Q22"/>
+    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
+      <selection activeCell="S15" sqref="S15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="2.75" defaultRowHeight="17.25" x14ac:dyDescent="0.3"/>
@@ -946,14 +946,14 @@
       <c r="F3" s="20"/>
       <c r="G3" s="20"/>
       <c r="I3" s="8" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="J3" s="8"/>
       <c r="K3" s="8"/>
       <c r="L3" s="8"/>
       <c r="M3" s="8"/>
       <c r="N3" s="9">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="O3" s="8"/>
       <c r="Q3" s="10"/>
@@ -966,11 +966,11 @@
       </c>
       <c r="X3" s="12"/>
       <c r="Y3" s="6" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AC3" s="13"/>
       <c r="AD3" s="6" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AG3" s="1"/>
       <c r="AH3" s="1"/>
@@ -978,7 +978,7 @@
       <c r="AJ3" s="1"/>
       <c r="AK3" s="14"/>
       <c r="AL3" s="6" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="4" spans="2:69" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -1025,7 +1025,7 @@
     </row>
     <row r="7" spans="2:69" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B7" s="5" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C7" s="4" t="s">
         <v>4</v>
@@ -1044,7 +1044,7 @@
       </c>
       <c r="H7" s="4"/>
       <c r="I7" s="4" t="s">
-        <v>9</v>
+        <v>26</v>
       </c>
       <c r="J7" s="4"/>
     </row>
@@ -1138,7 +1138,7 @@
     </row>
     <row r="9" spans="2:69" ht="18.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B9" s="15" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C9" s="16">
         <v>1</v>
@@ -1158,7 +1158,7 @@
     </row>
     <row r="10" spans="2:69" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B10" s="15" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C10" s="16">
         <v>2</v>
@@ -1178,7 +1178,7 @@
     </row>
     <row r="11" spans="2:69" ht="18.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B11" s="15" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C11" s="16">
         <v>3</v>
@@ -1198,7 +1198,7 @@
     </row>
     <row r="12" spans="2:69" ht="18.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B12" s="15" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C12" s="16">
         <v>5</v>
@@ -1218,7 +1218,7 @@
     </row>
     <row r="13" spans="2:69" ht="18.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B13" s="15" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C13" s="16">
         <v>4</v>
@@ -1238,7 +1238,7 @@
     </row>
     <row r="14" spans="2:69" ht="18.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B14" s="15" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C14" s="16">
         <v>6</v>
@@ -1258,7 +1258,7 @@
     </row>
     <row r="15" spans="2:69" ht="18.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B15" s="15" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C15" s="16">
         <v>5</v>
@@ -1278,7 +1278,7 @@
     </row>
     <row r="16" spans="2:69" ht="18.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B16" s="15" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C16" s="16">
         <v>7</v>
@@ -1298,7 +1298,7 @@
     </row>
     <row r="17" spans="2:7" ht="18.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B17" s="15" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C17" s="16">
         <v>6</v>
@@ -1318,7 +1318,7 @@
     </row>
     <row r="18" spans="2:7" ht="18.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B18" s="15" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C18" s="16">
         <v>8</v>
@@ -1338,7 +1338,7 @@
     </row>
     <row r="19" spans="2:7" ht="18.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B19" s="15" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C19" s="18">
         <v>9</v>
@@ -1358,7 +1358,7 @@
     </row>
     <row r="20" spans="2:7" ht="18.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B20" s="15" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C20" s="16">
         <v>1</v>
